--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H2">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I2">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J2">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N2">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q2">
-        <v>1.760120217343089</v>
+        <v>5.77400916599111</v>
       </c>
       <c r="R2">
-        <v>1.760120217343089</v>
+        <v>51.96608249391999</v>
       </c>
       <c r="S2">
-        <v>0.0002968279710180633</v>
+        <v>0.0009249951575120012</v>
       </c>
       <c r="T2">
-        <v>0.0002968279710180633</v>
+        <v>0.0009249951575120012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H3">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I3">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J3">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N3">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q3">
-        <v>1.226770369570848</v>
+        <v>1.938082393955555</v>
       </c>
       <c r="R3">
-        <v>1.226770369570848</v>
+        <v>17.4427415456</v>
       </c>
       <c r="S3">
-        <v>0.0002068834595028205</v>
+        <v>0.0003104804266379157</v>
       </c>
       <c r="T3">
-        <v>0.0002068834595028205</v>
+        <v>0.0003104804266379157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H4">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I4">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J4">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N4">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q4">
-        <v>102.3156179301994</v>
+        <v>162.0781641444156</v>
       </c>
       <c r="R4">
-        <v>102.3156179301994</v>
+        <v>1458.70347729974</v>
       </c>
       <c r="S4">
-        <v>0.0172545812350956</v>
+        <v>0.02596489071320786</v>
       </c>
       <c r="T4">
-        <v>0.0172545812350956</v>
+        <v>0.02596489071320786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H5">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J5">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N5">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q5">
-        <v>78.62601380606155</v>
+        <v>166.8274470606187</v>
       </c>
       <c r="R5">
-        <v>78.62601380606155</v>
+        <v>1501.447023545568</v>
       </c>
       <c r="S5">
-        <v>0.01325954893156158</v>
+        <v>0.02672572492265414</v>
       </c>
       <c r="T5">
-        <v>0.01325954893156158</v>
+        <v>0.02672572492265414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H6">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J6">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N6">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q6">
-        <v>54.80083863836625</v>
+        <v>55.99667902869335</v>
       </c>
       <c r="R6">
-        <v>54.80083863836625</v>
+        <v>503.9701112582401</v>
       </c>
       <c r="S6">
-        <v>0.009241653827298682</v>
+        <v>0.008970657207019565</v>
       </c>
       <c r="T6">
-        <v>0.009241653827298682</v>
+        <v>0.008970657207019565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H7">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J7">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N7">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q7">
-        <v>4570.522574929028</v>
+        <v>4682.896332715378</v>
       </c>
       <c r="R7">
-        <v>4570.522574929028</v>
+        <v>42146.0669944384</v>
       </c>
       <c r="S7">
-        <v>0.7707762964374795</v>
+        <v>0.750199091543857</v>
       </c>
       <c r="T7">
-        <v>0.7707762964374795</v>
+        <v>0.7501990915438569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H8">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J8">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N8">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q8">
-        <v>18.72926239930576</v>
+        <v>39.675433829536</v>
       </c>
       <c r="R8">
-        <v>18.72926239930576</v>
+        <v>357.078904465824</v>
       </c>
       <c r="S8">
-        <v>0.003158516618281183</v>
+        <v>0.00635599686621023</v>
       </c>
       <c r="T8">
-        <v>0.003158516618281183</v>
+        <v>0.006355996866210229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H9">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J9">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N9">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q9">
-        <v>13.05394025305208</v>
+        <v>13.31730822848</v>
       </c>
       <c r="R9">
-        <v>13.05394025305208</v>
+        <v>119.85577405632</v>
       </c>
       <c r="S9">
-        <v>0.002201426107674319</v>
+        <v>0.002133430216043702</v>
       </c>
       <c r="T9">
-        <v>0.002201426107674319</v>
+        <v>0.002133430216043702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H10">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J10">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N10">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q10">
-        <v>1088.730211084375</v>
+        <v>1113.701293479092</v>
       </c>
       <c r="R10">
-        <v>1088.730211084375</v>
+        <v>10023.31164131183</v>
       </c>
       <c r="S10">
-        <v>0.1836042654120882</v>
+        <v>0.1784147329468577</v>
       </c>
       <c r="T10">
-        <v>0.1836042654120882</v>
+        <v>0.1784147329468577</v>
       </c>
     </row>
   </sheetData>
